--- a/hist/stanice_kvalita_naf_20241217.xlsx
+++ b/hist/stanice_kvalita_naf_20241217.xlsx
@@ -2797,7 +2797,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2024-12-12T17:46:19Z</t>
+          <t>2024-12-17T07:27:40Z</t>
         </is>
       </c>
       <c r="M42" t="n">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2024-12-12T11:12:51Z</t>
+          <t>2024-12-17T05:03:19Z</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2024-12-08T10:53:12Z</t>
+          <t>2024-12-17T05:03:19Z</t>
         </is>
       </c>
       <c r="M49" t="n">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2024-12-13T07:32:27Z</t>
+          <t>2024-12-17T08:21:41Z</t>
         </is>
       </c>
       <c r="M81" t="n">
@@ -6751,7 +6751,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2024-12-16T12:24:13Z</t>
+          <t>2024-12-17T04:26:50Z</t>
         </is>
       </c>
       <c r="M112" t="n">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>2024-12-14T13:52:59Z</t>
+          <t>2024-12-17T04:34:05Z</t>
         </is>
       </c>
       <c r="M149" t="n">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>2024-12-13T13:08:40Z</t>
+          <t>2024-12-17T04:34:05Z</t>
         </is>
       </c>
       <c r="M154" t="n">
@@ -10835,7 +10835,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>2024-12-09T12:33:08Z</t>
+          <t>2024-12-17T04:42:14Z</t>
         </is>
       </c>
       <c r="M184" t="n">
@@ -10892,7 +10892,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>2024-12-15T04:19:44Z</t>
+          <t>2024-12-17T04:42:14Z</t>
         </is>
       </c>
       <c r="M185" t="n">
@@ -11063,7 +11063,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>2024-12-09T18:35:26Z</t>
+          <t>2024-12-17T07:08:53Z</t>
         </is>
       </c>
       <c r="M188" t="n">
@@ -13400,7 +13400,7 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>2024-12-14T15:39:36Z</t>
+          <t>2024-12-17T05:37:53Z</t>
         </is>
       </c>
       <c r="M229" t="n">
@@ -13913,7 +13913,7 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>2024-12-15T04:19:44Z</t>
+          <t>2024-12-17T04:42:14Z</t>
         </is>
       </c>
       <c r="M238" t="n">
@@ -13970,7 +13970,7 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>2024-12-13T11:48:48Z</t>
+          <t>2024-12-17T05:37:53Z</t>
         </is>
       </c>
       <c r="M239" t="n">
@@ -14141,7 +14141,7 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>2024-12-14T12:11:08Z</t>
+          <t>2024-12-17T06:56:04Z</t>
         </is>
       </c>
       <c r="M242" t="n">
@@ -14426,7 +14426,7 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>2024-12-10T12:17:47Z</t>
+          <t>2024-12-17T04:55:19Z</t>
         </is>
       </c>
       <c r="M247" t="n">
@@ -14483,7 +14483,7 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>2024-12-10T12:17:47Z</t>
+          <t>2024-12-17T04:55:19Z</t>
         </is>
       </c>
       <c r="M248" t="n">
@@ -14597,7 +14597,7 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>2024-12-15T15:03:07Z</t>
+          <t>2024-12-17T06:56:04Z</t>
         </is>
       </c>
       <c r="M250" t="n">
@@ -15847,7 +15847,7 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>2024-12-15T10:07:26Z</t>
+          <t>2024-12-17T07:27:40Z</t>
         </is>
       </c>
       <c r="M272" t="n">
